--- a/biology/Botanique/Abelia/Abelia.xlsx
+++ b/biology/Botanique/Abelia/Abelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abelia est un genre précédemment reconnu qui contenait environ 30 espèces et hybrides d'arbustes à feuillage persistant ou semi-persistant de la famille des Caprifoliaceae selon la classification classique, ou des Linnaeaceae selon la classification phylogénétique APG (1998)[1] puis replacée dans les Caprifoliaceae selon la classification phylogénétique APG III (2009)[2] plus récente.
-Des études phylogénétiques moléculaires ont montré que le genre n'était pas monophylétique et en 2013, Maarten Christenhusz a proposé la fusion d'Abelia (à l'exclusion de la section Zabelia) dans Linnaea, ainsi que d'autres genres. La section Abelia Zabelia a été élevée au genre Zabelia[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abelia est un genre précédemment reconnu qui contenait environ 30 espèces et hybrides d'arbustes à feuillage persistant ou semi-persistant de la famille des Caprifoliaceae selon la classification classique, ou des Linnaeaceae selon la classification phylogénétique APG (1998) puis replacée dans les Caprifoliaceae selon la classification phylogénétique APG III (2009) plus récente.
+Des études phylogénétiques moléculaires ont montré que le genre n'était pas monophylétique et en 2013, Maarten Christenhusz a proposé la fusion d'Abelia (à l'exclusion de la section Zabelia) dans Linnaea, ainsi que d'autres genres. La section Abelia Zabelia a été élevée au genre Zabelia.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le Larousse des arbres de Jacques Brosse :
 "Le docteur Clarke Abel (...) médecin de l'ambassade britannique conduite par Lord Amberst à Pékin (...) ne manqua pas de visiter les splendides jardins chinois et y fit plusieurs découvertes, dont celle de l'arbuste auquel son ami, l'illustre Robert Brown (1773-1858), devait donner son nom, A. chinensis, en créant pour cette espèce le nouveau genre Abelia, vers 1825."
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abélia est un genre d'arbustes à fleurs, ayant un feuillage persistant ou semi-persistant, principalement issu d'Asie. Les abélias mesurent de 1 à 4 mètres selon les espèces. Leur période de floraison s'étend de mai jusqu'aux premières gelées, où des milliers de clochettes roses ou blanches se succèdent. Après cela, chaque graine formée, est protégée par un akène aplati[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abélia est un genre d'arbustes à fleurs, ayant un feuillage persistant ou semi-persistant, principalement issu d'Asie. Les abélias mesurent de 1 à 4 mètres selon les espèces. Leur période de floraison s'étend de mai jusqu'aux premières gelées, où des milliers de clochettes roses ou blanches se succèdent. Après cela, chaque graine formée, est protégée par un akène aplati.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abélia peut être utilisé comme arbuste de haie jusqu'à un mètre de haut ou sur le balcon en pot mais aussi comme arbuste isolé. Il pourra alors monter jusqu'à deux mètres de haut. Il préfère le soleil et la terre légère et pas trop humide, plutôt acide.
 Une taille périodique, vers le mois de mars, doit être procurée à cet arbuste. Il faut effectuer des tailles de nettoyage et donc retirer les branches trop anciennes, réduire les rameaux trop long. Cette taille stimulera Abelia qui fournira une floraison  et de nouvelles pousses plus intensément.
@@ -608,9 +626,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces et synonymes précédemment placés dans Abelia mais désormais placés dans d'autres genres comprennent[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces et synonymes précédemment placés dans Abelia mais désormais placés dans d'autres genres comprennent :
 Abelia adenotricha = Lonicera elisae
 Abelia aitchinsonii = non placé
 Abelia angustifolia = Zabelia angustifolia
